--- a/Asp_post_salvage/steady-state/143B_SMv3/Prlfr_2/merged_143B.xlsx
+++ b/Asp_post_salvage/steady-state/143B_SMv3/Prlfr_2/merged_143B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/Asp_post_salvage/steady-state/143B_SMv3/Prlfr_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BAA04B-4C8B-2F4F-8231-17022A25DD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC5E08-73B1-AD4E-91F8-1BAB8EEB3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="28200" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
   <si>
     <t>Sample ID</t>
   </si>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>Mean cell size</t>
-  </si>
-  <si>
-    <t>cell_size</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1521,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cell_size</c:v>
+                  <c:v>Vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1553,10 +1550,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$124:$E$129</c:f>
+              <c:f>Sheet1!$E$124:$E$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.3059365310237836</c:v>
                 </c:pt>
@@ -1574,16 +1571,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.38303397070613809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0039063031917579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96127311976965368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88229966755383837</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88662724022898498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73420715331338227</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23433437935405282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$124:$F$129</c:f>
+              <c:f>Sheet1!$F$124:$F$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4383</c:v>
                 </c:pt>
@@ -1608,7 +1623,122 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D827-584A-9643-05B3716E06F2}"/>
+              <c16:uniqueId val="{00000000-50FE-1F44-913F-BF8BB1D4BEFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$124:$E$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.3059365310237836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2400270380345206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1992379689090353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1041059157418254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96527110121336857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38303397070613809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0039063031917579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96127311976965368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88229966755383837</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88662724022898498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73420715331338227</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23433437935405282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$124:$G$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="6">
+                  <c:v>4241.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4269.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4218.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4167.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4308</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4695.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50FE-1F44-913F-BF8BB1D4BEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1620,13 +1750,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1743589696"/>
-        <c:axId val="1784193600"/>
+        <c:axId val="1671256304"/>
+        <c:axId val="1670759312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1743589696"/>
+        <c:axId val="1671256304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.35"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1681,15 +1813,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784193600"/>
+        <c:crossAx val="1670759312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1784193600"/>
+        <c:axId val="1670759312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="3600"/>
+          <c:max val="5300"/>
+          <c:min val="3850"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1744,7 +1877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1743589696"/>
+        <c:crossAx val="1671256304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1756,65 +1889,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1828,7 +1904,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1843,242 +1919,7 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$130:$E$135</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0039063031917579</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96127311976965368</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88229966755383837</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88662724022898498</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73420715331338227</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23433437935405282</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$130:$F$135</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4241.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4269.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4218.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4167.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4308</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4695.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A22-A54E-BEB9-2FF89FD0285A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1702379040"/>
-        <c:axId val="1770911936"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1702379040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1770911936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1770911936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1702379040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2243,46 +2084,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3316,522 +3117,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4423,23 +3708,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31D6F66-98AA-FE97-7BD0-939696FBEC52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D46832-3189-F1A5-B312-968607E5A01B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4452,42 +3737,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5873A870-F4D6-C42B-187F-6094F51620A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4819,8 +4068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C114" workbookViewId="0">
-      <selection activeCell="N141" sqref="N141"/>
+    <sheetView tabSelected="1" topLeftCell="C119" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8082,7 +7331,7 @@
         <v>4167.25</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D113">
         <v>1.1000000000000001</v>
       </c>
@@ -8093,7 +7342,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D114">
         <v>1.6</v>
       </c>
@@ -8104,15 +7353,18 @@
         <v>4695.25</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E123" t="s">
         <v>127</v>
       </c>
       <c r="F123" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="G123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>129</v>
       </c>
@@ -8123,7 +7375,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>129</v>
       </c>
@@ -8134,7 +7386,7 @@
         <v>4386.75</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
         <v>129</v>
       </c>
@@ -8145,7 +7397,7 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
         <v>129</v>
       </c>
@@ -8156,7 +7408,7 @@
         <v>3974.5</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
         <v>129</v>
       </c>
@@ -8167,7 +7419,7 @@
         <v>4312.25</v>
       </c>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
         <v>129</v>
       </c>
@@ -8178,69 +7430,69 @@
         <v>5139.5</v>
       </c>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
         <v>130</v>
       </c>
       <c r="E130">
         <v>1.0039063031917579</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>4241.5</v>
       </c>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
         <v>130</v>
       </c>
       <c r="E131">
         <v>0.96127311976965368</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>4269.25</v>
       </c>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
         <v>130</v>
       </c>
       <c r="E132">
         <v>0.88229966755383837</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>4218.25</v>
       </c>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
         <v>130</v>
       </c>
       <c r="E133">
         <v>0.88662724022898498</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>4167.25</v>
       </c>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
         <v>130</v>
       </c>
       <c r="E134">
         <v>0.73420715331338227</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>4308</v>
       </c>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>130</v>
       </c>
       <c r="E135">
         <v>0.23433437935405282</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>4695.25</v>
       </c>
     </row>
